--- a/public/Reporte_por_proveedor.xlsx
+++ b/public/Reporte_por_proveedor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>REPORTE POR PROVEEDOR</t>
   </si>
@@ -86,6 +86,12 @@
     <t>2023/11/06</t>
   </si>
   <si>
+    <t>2023/11/09</t>
+  </si>
+  <si>
+    <t>SAL (1 Quintal)</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -107,6 +113,9 @@
     <t>2023/11/07</t>
   </si>
   <si>
+    <t>2023/11/08</t>
+  </si>
+  <si>
     <t>Dairy Delight Co.</t>
   </si>
   <si>
@@ -114,6 +123,9 @@
   </si>
   <si>
     <t>AGUA (BOTELLAS DE 500 ML)</t>
+  </si>
+  <si>
+    <t>COCA-COLA (BOTELLAS DE 2 LITROS)</t>
   </si>
 </sst>
 </file>
@@ -570,10 +582,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E63" sqref="E63:G63"/>
+      <selection activeCell="E68" sqref="E68:G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1084,133 +1096,133 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="5">
+        <v>56</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="7">
-        <v>2443.0</v>
-      </c>
-      <c r="F25" s="7">
+      <c r="C25" s="5">
+        <v>322</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="6">
+        <v>350.0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>350.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="7">
+        <v>2793.0</v>
+      </c>
+      <c r="F26" s="7">
         <v>127.14</v>
       </c>
-      <c r="G25" s="7">
-        <v>2315.86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="G26" s="7">
+        <v>2665.86</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="5">
-        <v>32</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="5">
-        <v>34343</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="6">
-        <v>142.0</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G28" s="6">
-        <v>142.0</v>
-      </c>
+      <c r="A28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="5">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="5">
+        <v>34343</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="6">
+        <v>142.0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>142.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="5">
+        <v>44</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="5">
         <v>12</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="G30" s="6">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="7">
+        <v>242.0</v>
+      </c>
+      <c r="F31" s="7">
         <v>13.0</v>
       </c>
-      <c r="G29" s="6">
-        <v>87.0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="7">
-        <v>242.0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>13.0</v>
-      </c>
-      <c r="G30" s="7">
+      <c r="G31" s="7">
         <v>229.0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="5">
-        <v>12</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="5">
-        <v>2312</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F33" s="6">
-        <v>13.0</v>
-      </c>
-      <c r="G33" s="6">
-        <v>87.0</v>
-      </c>
+      <c r="A33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>13</v>
@@ -1219,7 +1231,7 @@
         <v>2312</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E34" s="6">
         <v>100.0</v>
@@ -1233,7 +1245,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>13</v>
@@ -1242,7 +1254,7 @@
         <v>2312</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E35" s="6">
         <v>100.0</v>
@@ -1256,7 +1268,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>13</v>
@@ -1265,7 +1277,7 @@
         <v>2312</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E36" s="6">
         <v>100.0</v>
@@ -1279,122 +1291,122 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="5">
-        <v>2343</v>
+        <v>2312</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E37" s="6">
-        <v>150.0</v>
+        <v>100.0</v>
       </c>
       <c r="F37" s="6">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G37" s="6">
-        <v>150.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C38" s="5">
-        <v>212</v>
+        <v>2343</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E38" s="6">
-        <v>100.0</v>
+        <v>150.0</v>
       </c>
       <c r="F38" s="6">
         <v>0.0</v>
       </c>
       <c r="G38" s="6">
-        <v>100.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C39" s="5">
-        <v>2323</v>
+        <v>212</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E39" s="6">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="F39" s="6">
-        <v>10.4</v>
+        <v>0.0</v>
       </c>
       <c r="G39" s="6">
-        <v>69.6</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="5">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C40" s="5">
-        <v>23423</v>
+        <v>2323</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E40" s="6">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="F40" s="6">
-        <v>13.0</v>
+        <v>10.4</v>
       </c>
       <c r="G40" s="6">
-        <v>87.0</v>
+        <v>69.6</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="5">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="5">
-        <v>123</v>
+        <v>23423</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E41" s="6">
         <v>100.0</v>
       </c>
       <c r="F41" s="6">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G41" s="6">
-        <v>100.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="5">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>17</v>
@@ -1403,452 +1415,567 @@
         <v>123</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E42" s="6">
         <v>100.0</v>
       </c>
       <c r="F42" s="6">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="G42" s="6">
-        <v>87.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="5">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="5">
-        <v>232</v>
+        <v>123</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E43" s="6">
-        <v>120.0</v>
+        <v>100.0</v>
       </c>
       <c r="F43" s="6">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="G43" s="6">
-        <v>120.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="5">
-        <v>342</v>
+        <v>232</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E44" s="6">
-        <v>130.0</v>
+        <v>120.0</v>
       </c>
       <c r="F44" s="6">
         <v>0.0</v>
       </c>
       <c r="G44" s="6">
-        <v>130.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="5">
-        <v>23</v>
+        <v>342</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E45" s="6">
-        <v>355.0</v>
+        <v>130.0</v>
       </c>
       <c r="F45" s="6">
-        <v>46.15</v>
+        <v>0.0</v>
       </c>
       <c r="G45" s="6">
-        <v>308.85</v>
+        <v>130.0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="5">
+        <v>49</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="5">
+        <v>23</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="6">
+        <v>355.0</v>
+      </c>
+      <c r="F46" s="6">
+        <v>46.15</v>
+      </c>
+      <c r="G46" s="6">
+        <v>308.85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="5">
         <v>51</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B47" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1232</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="5">
-        <v>1232</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="6">
+      <c r="E47" s="6">
         <v>30.0</v>
       </c>
-      <c r="F46" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G46" s="6">
+      <c r="F47" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G47" s="6">
         <v>30.0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="7">
-        <v>1665.0</v>
-      </c>
-      <c r="F47" s="7">
-        <v>134.55</v>
-      </c>
-      <c r="G47" s="7">
-        <v>1530.45</v>
+    <row r="48" spans="1:7">
+      <c r="A48" s="5">
+        <v>52</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="5">
+        <v>21322</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="6">
+        <v>111.0</v>
+      </c>
+      <c r="F48" s="6">
+        <v>14.43</v>
+      </c>
+      <c r="G48" s="6">
+        <v>96.57</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5">
+        <v>53</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="5">
+        <v>3123</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
+      <c r="E49" s="6">
+        <v>85.0</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G49" s="6">
+        <v>85.0</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="5">
-        <v>7</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="5">
-        <v>23232</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="6">
-        <v>185.5</v>
-      </c>
-      <c r="F50" s="6">
-        <v>24.115</v>
-      </c>
-      <c r="G50" s="6">
-        <v>161.385</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="5">
-        <v>9</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="5">
-        <v>23423</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="6">
-        <v>550.0</v>
-      </c>
-      <c r="F51" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G51" s="6">
-        <v>550.0</v>
+      <c r="A50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="7">
+        <v>1861.0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>148.98</v>
+      </c>
+      <c r="G50" s="7">
+        <v>1712.02</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="5">
-        <v>10</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="5">
-        <v>2312312</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E52" s="6">
-        <v>550.0</v>
-      </c>
-      <c r="F52" s="6">
-        <v>71.5</v>
-      </c>
-      <c r="G52" s="6">
-        <v>478.5</v>
-      </c>
+      <c r="A52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="5">
-        <v>23123</v>
+        <v>23232</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E53" s="6">
-        <v>550.0</v>
+        <v>185.5</v>
       </c>
       <c r="F53" s="6">
-        <v>71.5</v>
+        <v>24.115</v>
       </c>
       <c r="G53" s="6">
-        <v>478.5</v>
+        <v>161.385</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="5">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C54" s="5">
-        <v>2123</v>
+        <v>23423</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E54" s="6">
-        <v>100.0</v>
+        <v>550.0</v>
       </c>
       <c r="F54" s="6">
         <v>0.0</v>
       </c>
       <c r="G54" s="6">
-        <v>100.0</v>
+        <v>550.0</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="5">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C55" s="5">
-        <v>3343</v>
+        <v>2312312</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E55" s="6">
-        <v>120.0</v>
+        <v>550.0</v>
       </c>
       <c r="F55" s="6">
-        <v>0.0</v>
+        <v>71.5</v>
       </c>
       <c r="G55" s="6">
-        <v>120.0</v>
+        <v>478.5</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="5">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C56" s="5">
-        <v>2233</v>
+        <v>23123</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E56" s="6">
-        <v>135.0</v>
+        <v>550.0</v>
       </c>
       <c r="F56" s="6">
-        <v>0.0</v>
+        <v>71.5</v>
       </c>
       <c r="G56" s="6">
-        <v>135.0</v>
+        <v>478.5</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="5">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="5">
-        <v>232</v>
+        <v>2123</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E57" s="6">
-        <v>140.0</v>
+        <v>100.0</v>
       </c>
       <c r="F57" s="6">
         <v>0.0</v>
       </c>
       <c r="G57" s="6">
-        <v>140.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="5">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C58" s="5">
-        <v>23232</v>
+        <v>3343</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E58" s="6">
-        <v>320.0</v>
+        <v>120.0</v>
       </c>
       <c r="F58" s="6">
-        <v>41.6</v>
+        <v>0.0</v>
       </c>
       <c r="G58" s="6">
-        <v>278.4</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="5">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C59" s="5">
-        <v>23232</v>
+        <v>2233</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E59" s="6">
-        <v>155.0</v>
+        <v>135.0</v>
       </c>
       <c r="F59" s="6">
         <v>0.0</v>
       </c>
       <c r="G59" s="6">
-        <v>155.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="5">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C60" s="5">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E60" s="6">
-        <v>15.0</v>
+        <v>140.0</v>
       </c>
       <c r="F60" s="6">
         <v>0.0</v>
       </c>
       <c r="G60" s="6">
-        <v>15.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="5">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C61" s="5">
-        <v>23123</v>
+        <v>23232</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E61" s="6">
-        <v>120.0</v>
+        <v>320.0</v>
       </c>
       <c r="F61" s="6">
-        <v>0.0</v>
+        <v>41.6</v>
       </c>
       <c r="G61" s="6">
-        <v>120.0</v>
+        <v>278.4</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="5">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="5">
+        <v>23232</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="6">
+        <v>155.0</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G62" s="6">
+        <v>155.0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="5">
+        <v>33</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="5">
+        <v>312</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G63" s="6">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="5">
+        <v>34</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="5">
+        <v>23123</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="6">
+        <v>120.0</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G64" s="6">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="5">
+        <v>37</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="5">
         <v>2323</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E65" s="6">
         <v>15.0</v>
       </c>
-      <c r="F62" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="G62" s="6">
+      <c r="F65" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G65" s="6">
         <v>15.0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="2" t="s">
+    <row r="66" spans="1:7">
+      <c r="A66" s="5">
+        <v>54</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="5">
+        <v>12312</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="F66" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="G66" s="6">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="5">
+        <v>55</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="7">
-        <v>2955.5</v>
-      </c>
-      <c r="F63" s="7">
-        <v>208.715</v>
-      </c>
-      <c r="G63" s="7">
-        <v>2746.785</v>
+      <c r="C67" s="5">
+        <v>2312</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="6">
+        <v>155.0</v>
+      </c>
+      <c r="F67" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G67" s="6">
+        <v>155.0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="7">
+        <v>3210.5</v>
+      </c>
+      <c r="F68" s="7">
+        <v>221.715</v>
+      </c>
+      <c r="G68" s="7">
+        <v>2988.785</v>
       </c>
     </row>
   </sheetData>
@@ -1856,13 +1983,13 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A68:D68"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
